--- a/scripts/taille_maturite_especes/traits_biologiques.xlsx
+++ b/scripts/taille_maturite_especes/traits_biologiques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lea.bouchet\Documents\Artif\Artif\liste_rouge_regionale\scripts\taille_maturite_especes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043C49DC-3E54-4B2F-AE22-652D240A26B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB2CCD8-D3F0-4832-AF0C-EF2BBEFEEF49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{25E8E10F-A282-45EE-82C4-3240378E5878}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>esp_code_alternatif</t>
   </si>
@@ -339,12 +339,6 @@
     <t>gausienne</t>
   </si>
   <si>
-    <t>espece_lrr_2015</t>
-  </si>
-  <si>
-    <t>espece_bzh</t>
-  </si>
-  <si>
     <t>esp_nom_commun</t>
   </si>
   <si>
@@ -369,10 +363,10 @@
     <t>duree_generation</t>
   </si>
   <si>
-    <t>espece_presence_liste</t>
-  </si>
-  <si>
     <t>VAR</t>
+  </si>
+  <si>
+    <t>espece_presence_lrr_2015</t>
   </si>
 </sst>
 </file>
@@ -783,13 +777,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C65F63-35D5-4CD1-B443-72BB0835CA8F}">
   <dimension ref="A1:K598"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
@@ -805,42 +799,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>102</v>
       </c>
       <c r="I1" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>104</v>
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -865,8 +859,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>104</v>
+      <c r="A3" s="1">
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>97</v>
@@ -894,8 +888,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>104</v>
+      <c r="A4" s="1">
+        <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -922,8 +916,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>104</v>
+      <c r="A5" s="1">
+        <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>91</v>
@@ -951,8 +945,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>104</v>
+      <c r="A6" s="1">
+        <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -979,8 +973,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>104</v>
+      <c r="A7" s="1">
+        <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -1003,8 +997,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>104</v>
+      <c r="A8" s="1">
+        <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -1034,8 +1028,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>104</v>
+      <c r="A9" s="1">
+        <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>98</v>
@@ -1060,8 +1054,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>104</v>
+      <c r="A10" s="1">
+        <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>99</v>
@@ -1088,8 +1082,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>104</v>
+      <c r="A11" s="1">
+        <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -1115,8 +1109,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>104</v>
+      <c r="A12" s="1">
+        <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -1142,8 +1136,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>104</v>
+      <c r="A13" s="1">
+        <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>100</v>
@@ -1174,8 +1168,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>104</v>
+      <c r="A14" s="1">
+        <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -1198,8 +1192,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>104</v>
+      <c r="A15" s="1">
+        <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>24</v>
@@ -1224,8 +1218,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>104</v>
+      <c r="A16" s="1">
+        <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>34</v>
@@ -1255,8 +1249,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>104</v>
+      <c r="A17" s="1">
+        <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>32</v>
@@ -1283,8 +1277,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>104</v>
+      <c r="A18" s="1">
+        <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>33</v>
@@ -1308,8 +1302,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>104</v>
+      <c r="A19" s="1">
+        <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>35</v>
@@ -1335,8 +1329,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>104</v>
+      <c r="A20" s="1">
+        <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>37</v>
@@ -1363,8 +1357,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>104</v>
+      <c r="A21" s="1">
+        <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>30</v>
@@ -1387,8 +1381,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>104</v>
+      <c r="A22" s="1">
+        <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>39</v>
@@ -1418,8 +1412,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>104</v>
+      <c r="A23" s="1">
+        <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>40</v>
@@ -1449,8 +1443,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>104</v>
+      <c r="A24" s="1">
+        <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>42</v>
@@ -1480,8 +1474,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>104</v>
+      <c r="A25" s="1">
+        <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>101</v>
@@ -1513,8 +1507,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>103</v>
+      <c r="A26" s="1">
+        <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
@@ -1549,8 +1543,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>103</v>
+      <c r="A27" s="1">
+        <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>22</v>
@@ -1581,8 +1575,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>103</v>
+      <c r="A28" s="1">
+        <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
@@ -1611,8 +1605,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>103</v>
+      <c r="A29" s="1">
+        <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
@@ -1642,8 +1636,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>103</v>
+      <c r="A30" s="1">
+        <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>11</v>
@@ -1675,8 +1669,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>103</v>
+      <c r="A31" s="1">
+        <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>12</v>
@@ -1711,8 +1705,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>103</v>
+      <c r="A32" s="1">
+        <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>13</v>
@@ -1747,8 +1741,8 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>103</v>
+      <c r="A33" s="1">
+        <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>16</v>
@@ -1783,8 +1777,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>103</v>
+      <c r="A34" s="1">
+        <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>17</v>
@@ -1816,8 +1810,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>103</v>
+      <c r="A35" s="1">
+        <v>1</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>18</v>
@@ -1852,8 +1846,8 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>103</v>
+      <c r="A36" s="1">
+        <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>19</v>
@@ -1883,8 +1877,8 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>103</v>
+      <c r="A37" s="1">
+        <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>1</v>
@@ -1912,8 +1906,8 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>103</v>
+      <c r="A38" s="1">
+        <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>2</v>
@@ -1943,8 +1937,8 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>103</v>
+      <c r="A39" s="1">
+        <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>20</v>
@@ -1976,8 +1970,8 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>103</v>
+      <c r="A40" s="1">
+        <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>21</v>
@@ -2009,8 +2003,8 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>103</v>
+      <c r="A41" s="1">
+        <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>28</v>
@@ -2043,8 +2037,8 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>103</v>
+      <c r="A42" s="1">
+        <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>27</v>
@@ -2072,8 +2066,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>103</v>
+      <c r="A43" s="1">
+        <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>25</v>
@@ -2108,8 +2102,8 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>103</v>
+      <c r="A44" s="1">
+        <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>26</v>
@@ -2134,8 +2128,8 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>103</v>
+      <c r="A45" s="1">
+        <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>29</v>
@@ -2167,8 +2161,8 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>103</v>
+      <c r="A46" s="1">
+        <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>31</v>
@@ -2203,8 +2197,8 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>103</v>
+      <c r="A47" s="1">
+        <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>36</v>
@@ -2234,8 +2228,8 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>103</v>
+      <c r="A48" s="1">
+        <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>38</v>
@@ -2260,8 +2254,8 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>103</v>
+      <c r="A49" s="1">
+        <v>1</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>41</v>
@@ -2288,8 +2282,8 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>103</v>
+      <c r="A50" s="1">
+        <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>43</v>
@@ -2321,8 +2315,8 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>103</v>
+      <c r="A51" s="1">
+        <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>44</v>
@@ -2349,14 +2343,14 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>103</v>
+      <c r="A52" s="1">
+        <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D52" s="8">
         <v>110</v>

--- a/scripts/taille_maturite_especes/traits_biologiques.xlsx
+++ b/scripts/taille_maturite_especes/traits_biologiques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lea.bouchet\Documents\Artif\Artif\liste_rouge_regionale\scripts\taille_maturite_especes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB2CCD8-D3F0-4832-AF0C-EF2BBEFEEF49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD92E26-D7AA-4F8F-96AE-95487047B46D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{25E8E10F-A282-45EE-82C4-3240378E5878}"/>
   </bookViews>
@@ -351,9 +351,6 @@
     <t>atlas_poissons_eau_douce_France</t>
   </si>
   <si>
-    <t>taille_maturite_moy</t>
-  </si>
-  <si>
     <t>lrr_occi_tps_gen_taille</t>
   </si>
   <si>
@@ -367,6 +364,9 @@
   </si>
   <si>
     <t>espece_presence_lrr_2015</t>
+  </si>
+  <si>
+    <t>taille_maturite</t>
   </si>
 </sst>
 </file>
@@ -778,7 +778,7 @@
   <dimension ref="A1:K598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,7 +799,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>103</v>
@@ -817,19 +817,19 @@
         <v>106</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>102</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2350,7 +2350,7 @@
         <v>45</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D52" s="8">
         <v>110</v>
